--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,94 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>17600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -769,13 +775,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>54700</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,37 +885,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-2300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,16 +962,17 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -955,10 +981,10 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,28 +992,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,28 +1040,29 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1037,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,57 +1102,63 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>14700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,25 +1166,28 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1230,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1262,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,28 +1422,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1454,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1518,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1550,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,28 +1617,29 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,37 +1679,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,25 +1743,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1677,28 +1775,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1400</v>
       </c>
       <c r="F46" s="3">
         <v>1400</v>
       </c>
       <c r="G46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1706,26 +1807,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>173200</v>
+        <v>3400</v>
       </c>
       <c r="E47" s="3">
         <v>173200</v>
       </c>
       <c r="F47" s="3">
+        <v>173200</v>
+      </c>
+      <c r="G47" s="3">
         <v>173600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>172700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,66 +1839,75 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>44300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,13 +1967,16 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1868,20 +1987,23 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2031,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>268400</v>
+      </c>
+      <c r="E54" s="3">
         <v>174400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>174600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>175000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,17 +2093,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -1984,8 +2114,8 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1993,13 +2123,16 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>4700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2010,40 +2143,43 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2051,42 +2187,48 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>43200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2109,13 +2251,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6000</v>
+        <v>86100</v>
       </c>
       <c r="E62" s="3">
         <v>6000</v>
@@ -2126,8 +2271,8 @@
       <c r="G62" s="3">
         <v>6000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>6000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2379,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,28 +2553,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-317500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>600</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,28 +2681,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E76" s="3">
         <v>165400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>168500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>168700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>168200</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2745,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3020,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,23 +3162,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-11200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,8 +3336,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3108,14 +3353,14 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>174200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3123,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,13 +3400,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>200800</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
@@ -3167,18 +3418,21 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F8" s="3">
         <v>72300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -743,23 +751,29 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F9" s="3">
         <v>17600</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,20 +792,26 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F10" s="3">
         <v>54700</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,8 +830,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +850,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +884,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,20 +922,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,14 +954,20 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +998,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +1015,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F17" s="3">
         <v>110100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-37800</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,48 +1107,56 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-61800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1105,20 +1179,26 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>14700</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1131,69 +1211,81 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-65500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-53100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1293,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-51300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-68500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,72 +1559,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-68500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-68500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,63 +1790,71 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>150200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>222900</v>
+      </c>
+      <c r="F41" s="3">
         <v>196000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>10100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1682,20 +1862,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,14 +1894,20 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,116 +1938,140 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F45" s="3">
         <v>15500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>250900</v>
+      </c>
+      <c r="F46" s="3">
         <v>215800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F47" s="3">
         <v>3400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>173200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>173200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>173600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>172700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,26 +2084,32 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>72800</v>
+      </c>
+      <c r="F49" s="3">
         <v>44300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1900,14 +2122,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,19 +2204,25 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1990,20 +2230,26 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,40 +2280,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>777600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>334200</v>
+      </c>
+      <c r="F54" s="3">
         <v>268400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>174400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>174600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>175000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>174400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,148 +2354,174 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F57" s="3">
         <v>9200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>412300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F59" s="3">
         <v>17800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F60" s="3">
         <v>31700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F61" s="3">
         <v>43200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2254,19 +2540,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>94100</v>
+      </c>
+      <c r="F62" s="3">
         <v>86100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6000</v>
       </c>
       <c r="G62" s="3">
         <v>6000</v>
@@ -2274,11 +2566,11 @@
       <c r="H62" s="3">
         <v>6000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2578,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,40 +2692,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>548900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>172200</v>
+      </c>
+      <c r="F66" s="3">
         <v>161100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,40 +2898,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-398900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-382600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-317500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>600</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,40 +3050,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>228800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>162000</v>
+      </c>
+      <c r="F76" s="3">
         <v>107300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>165400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>168500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>168700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>168200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-68500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,31 +3227,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2863,8 +3261,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3451,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-47600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,31 +3509,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3101,8 +3543,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,29 +3619,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3657,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,16 +3825,22 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>72600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3356,23 +3848,29 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>174200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,36 +3901,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F102" s="3">
         <v>200800</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E8" s="3">
         <v>51300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>72300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -748,35 +752,38 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E9" s="3">
         <v>19500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,23 +805,26 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E10" s="3">
         <v>31800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,23 +945,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-8200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -960,14 +980,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,25 +1043,26 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E17" s="3">
         <v>66000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>110100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1044,10 +1071,10 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1055,23 +1082,26 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,11 +1111,11 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,23 +1142,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,11 +1169,11 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1147,20 +1181,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-61800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,23 +1222,26 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
         <v>1200</v>
       </c>
       <c r="F22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3">
         <v>14700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1217,43 +1257,46 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-53100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1261,34 +1304,37 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,37 +1386,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1375,37 +1427,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-68500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,23 +1632,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E32" s="3">
         <v>8100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,11 +1661,11 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1603,37 +1673,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-68500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,37 +1755,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-68500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1717,51 +1796,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,37 +1878,38 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>410200</v>
+      </c>
+      <c r="E41" s="3">
         <v>150200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>222900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>196000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1830,16 +1917,19 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>10100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="E42" s="3">
+        <v>10100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1856,8 +1946,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1868,23 +1958,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E43" s="3">
         <v>23000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1900,14 +1993,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,34 +2040,37 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>259400</v>
+      </c>
+      <c r="E45" s="3">
         <v>317000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>200</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1982,37 +2081,40 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>713400</v>
+      </c>
+      <c r="E46" s="3">
         <v>500400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>250900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1400</v>
       </c>
       <c r="I46" s="3">
         <v>1400</v>
       </c>
       <c r="J46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2020,35 +2122,38 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E47" s="3">
         <v>63400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>173200</v>
       </c>
       <c r="H47" s="3">
         <v>173200</v>
       </c>
       <c r="I47" s="3">
+        <v>173200</v>
+      </c>
+      <c r="J47" s="3">
         <v>173600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>172700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,23 +2163,26 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E48" s="3">
         <v>7900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2090,29 +2198,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E49" s="3">
         <v>205600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>72800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,14 +2239,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,13 +2327,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2224,8 +2344,8 @@
       <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2236,20 +2356,23 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,46 +2409,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1050300</v>
+      </c>
+      <c r="E54" s="3">
         <v>777600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>334200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>268400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>174400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>174600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>175000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>174400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2385,8 +2516,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2403,14 +2537,14 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2420,49 +2554,52 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>371500</v>
+      </c>
+      <c r="E59" s="3">
         <v>412300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2470,61 +2607,67 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>377100</v>
+      </c>
+      <c r="E60" s="3">
         <v>417000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>35500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>42600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2546,22 +2689,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E62" s="3">
         <v>88000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>94100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>86100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>6000</v>
       </c>
       <c r="H62" s="3">
         <v>6000</v>
@@ -2572,8 +2718,8 @@
       <c r="J62" s="3">
         <v>6000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>6000</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>858100</v>
+      </c>
+      <c r="E66" s="3">
         <v>548900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>172200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,37 +3075,40 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-404000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-398900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-382600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-317500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>600</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,37 +3239,40 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E76" s="3">
         <v>228800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>162000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>107300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>165400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>168500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>168700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>168200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,80 +3321,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-68500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,20 +3427,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3255,8 +3454,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,37 +3671,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-47600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,19 +3731,20 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3537,8 +3758,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,32 +3852,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-107600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,20 +4074,23 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E100" s="3">
         <v>34500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>72600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3854,14 +4100,14 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>174200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,22 +4156,25 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>263400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
@@ -3931,18 +4183,21 @@
         <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F8" s="3">
         <v>62800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>51300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>26700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>72300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -764,32 +771,38 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F9" s="3">
         <v>19200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>19500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>17600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,29 +821,35 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F10" s="3">
         <v>43600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>31800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>20800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>54700</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +868,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +891,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +934,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,29 +981,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-8200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -983,14 +1022,20 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1075,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1095,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F17" s="3">
         <v>78500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>66000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>56400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>110100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-14700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-29700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-37800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,67 +1208,75 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>10600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-34600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-18900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-61800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,29 +1298,35 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,87 +1339,99 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-24000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-65500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-53100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-7700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1439,14 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1486,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-65100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-51300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-65100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-68500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1768,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>34600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-65100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-68500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1909,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-65100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-68500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,64 +2050,72 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>315700</v>
+      </c>
+      <c r="F41" s="3">
         <v>410200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>150200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>222900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>196000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F42" s="3">
         <v>10100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>10100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,11 +2128,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1961,29 +2140,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F43" s="3">
         <v>33600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>23000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>9600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,14 +2181,20 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,152 +2234,176 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>251300</v>
+      </c>
+      <c r="F45" s="3">
         <v>259400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>317000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>15500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>601800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>605100</v>
+      </c>
+      <c r="F46" s="3">
         <v>713400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>250900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>215800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E47" s="3">
         <v>65800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="G47" s="3">
         <v>63400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>173200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>173200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>173600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>172700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F48" s="3">
         <v>7700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2201,35 +2416,41 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>350900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>355500</v>
+      </c>
+      <c r="F49" s="3">
         <v>262100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>205600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>72800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>44300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,14 +2463,20 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,28 +2563,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2359,20 +2598,26 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2657,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1036800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1038700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1050300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>777600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>334200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>268400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>174400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>174600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>175000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>174400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,193 +2746,219 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>373200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>356000</v>
+      </c>
+      <c r="F59" s="3">
         <v>371500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>412300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>381400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>363100</v>
+      </c>
+      <c r="F60" s="3">
         <v>377100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>417000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>35500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>31700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>414600</v>
+      </c>
+      <c r="F61" s="3">
         <v>418000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>43800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>42600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>43200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,28 +2977,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F62" s="3">
         <v>63000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>88000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>94100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>86100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>6000</v>
       </c>
       <c r="J62" s="3">
         <v>6000</v>
@@ -2721,11 +3012,11 @@
       <c r="K62" s="3">
         <v>6000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M62" s="3">
+        <v>6000</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -2733,8 +3024,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3165,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>821900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>821700</v>
+      </c>
+      <c r="F66" s="3">
         <v>858100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>548900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>172200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>161100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3419,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-429900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-424100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-404000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-398900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-382600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-317500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>600</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3607,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>217000</v>
+      </c>
+      <c r="F76" s="3">
         <v>192300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>228800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>162000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>107300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>165400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>168500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>168700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>168200</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3701,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-65100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-68500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,26 +3823,28 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F83" s="3">
         <v>4400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,11 +3854,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3469,8 +3866,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-22900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-47600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,25 +4171,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3761,11 +4202,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3773,8 +4214,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4308,44 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-53400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-107600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-11200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4355,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4562,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F100" s="3">
         <v>327700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>34500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>72600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>174200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4656,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="F102" s="3">
         <v>263400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-81000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>25900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E8" s="3">
         <v>62600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>62800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>72300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,44 +772,47 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E9" s="3">
         <v>21200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,32 +834,35 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E10" s="3">
         <v>41400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,32 +1004,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-8200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,14 +1048,17 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,34 +1123,35 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E17" s="3">
         <v>87900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>110100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1133,10 +1160,10 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1144,32 +1171,35 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,11 +1209,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,32 +1243,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E20" s="3">
         <v>21600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1245,11 +1279,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1257,29 +1291,32 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E21" s="3">
         <v>2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-61800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,32 +1341,35 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1200</v>
       </c>
       <c r="H22" s="3">
         <v>1200</v>
       </c>
       <c r="I22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J22" s="3">
         <v>14700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,52 +1385,55 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-53100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1398,43 +1441,46 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,46 +1541,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-65100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-51300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1539,46 +1591,49 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-65100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-68500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,32 +1841,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,11 +1879,11 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1821,46 +1891,49 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-65100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-68500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,46 +1991,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-65100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-68500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1962,60 +2041,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,46 +2138,47 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E41" s="3">
         <v>292400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>315700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>410200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>150200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>222900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>196000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2099,25 +2186,28 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E42" s="3">
         <v>8500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9300</v>
-      </c>
-      <c r="F42" s="3">
-        <v>10100</v>
       </c>
       <c r="G42" s="3">
         <v>10100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>10100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -2134,8 +2224,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2146,32 +2236,35 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E43" s="3">
         <v>30000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,14 +2280,17 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,43 +2336,46 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E45" s="3">
         <v>271000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>251300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>259400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>317000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>200</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2287,46 +2386,49 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>624800</v>
+      </c>
+      <c r="E46" s="3">
         <v>601800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>605100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>713400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>250900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>215800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1400</v>
       </c>
       <c r="L46" s="3">
         <v>1400</v>
       </c>
       <c r="M46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2334,44 +2436,47 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E47" s="3">
         <v>65900</v>
-      </c>
-      <c r="E47" s="3">
-        <v>65800</v>
       </c>
       <c r="F47" s="3">
         <v>65800</v>
       </c>
       <c r="G47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="H47" s="3">
         <v>63400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>173200</v>
       </c>
       <c r="K47" s="3">
         <v>173200</v>
       </c>
       <c r="L47" s="3">
+        <v>173200</v>
+      </c>
+      <c r="M47" s="3">
         <v>173600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>172700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,32 +2486,35 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2422,38 +2530,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>410400</v>
+      </c>
+      <c r="E49" s="3">
         <v>350900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>355500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>262100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>205600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>72800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,14 +2580,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,22 +2686,25 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2592,8 +2712,8 @@
       <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2604,20 +2724,23 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1036800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1038700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1050300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>777600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>334200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>268400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>174400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>175000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>174400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2786,8 +2917,8 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2807,20 +2941,20 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2830,58 +2964,61 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E59" s="3">
         <v>373200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>356000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>371500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>412300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -2889,79 +3026,85 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>468900</v>
+      </c>
+      <c r="E60" s="3">
         <v>381400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>363100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>377100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>417000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>416600</v>
+      </c>
+      <c r="E61" s="3">
         <v>415000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>414600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>418000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>42600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2983,31 +3126,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E62" s="3">
         <v>25500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>88000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>94100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>86100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>6000</v>
       </c>
       <c r="K62" s="3">
         <v>6000</v>
@@ -3018,8 +3164,8 @@
       <c r="M62" s="3">
         <v>6000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>6000</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>921000</v>
+      </c>
+      <c r="E66" s="3">
         <v>821900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>821700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>858100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>548900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>172200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,46 +3596,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-456300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-429900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-424100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-404000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-398900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-382600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-317500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>600</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,46 +3796,49 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E76" s="3">
         <v>214900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>217000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>192300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>228800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>162000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>107300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>165400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>168500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>168700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>168200</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,98 +3896,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-65100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-68500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,29 +4023,30 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E83" s="3">
         <v>6500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4059,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,46 +4321,49 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,28 +4393,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -4208,8 +4429,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,41 +4541,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-53400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-107600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,29 +4811,32 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>327700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>72600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4600,14 +4846,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>174200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,31 +4911,34 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-91000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>263400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-81000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
@@ -4695,18 +4947,21 @@
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E8" s="3">
         <v>70800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>62600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>62800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>72300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -775,47 +779,50 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E9" s="3">
         <v>28600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,35 +844,38 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E10" s="3">
         <v>42200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,35 +1024,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>57100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-8200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1051,14 +1071,17 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,37 +1150,38 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E17" s="3">
         <v>101600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>78500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>66000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>110100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1163,10 +1190,10 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1174,35 +1201,38 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,11 +1242,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,35 +1277,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,11 +1316,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,32 +1328,35 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-61800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,35 +1381,38 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1200</v>
       </c>
       <c r="I22" s="3">
         <v>1200</v>
       </c>
       <c r="J22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K22" s="3">
         <v>14700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,55 +1428,58 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-65500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-53100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1444,46 +1487,49 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,49 +1593,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-65100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-51300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1594,49 +1646,52 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-65100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-68500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,35 +1911,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-21600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,11 +1952,11 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,49 +1964,52 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-65100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-68500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2070,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-65100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-68500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2044,63 +2123,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,49 +2225,50 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>260200</v>
+      </c>
+      <c r="E41" s="3">
         <v>271000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>292400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>315700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>410200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>150200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>222900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>196000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2189,28 +2276,31 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E42" s="3">
         <v>8200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>10100</v>
       </c>
       <c r="H42" s="3">
         <v>10100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>10100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -2227,8 +2317,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2239,35 +2329,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E43" s="3">
         <v>38500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,14 +2376,17 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,46 +2435,49 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E45" s="3">
         <v>307200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>271000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>251300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>259400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>317000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>200</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2389,49 +2488,52 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>645900</v>
+      </c>
+      <c r="E46" s="3">
         <v>624800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>601800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>605100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>713400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>250900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>215800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
       </c>
       <c r="M46" s="3">
         <v>1400</v>
       </c>
       <c r="N46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2439,47 +2541,50 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E47" s="3">
         <v>66700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>65900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>65800</v>
       </c>
       <c r="G47" s="3">
         <v>65800</v>
       </c>
       <c r="H47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="I47" s="3">
         <v>63400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>173200</v>
       </c>
       <c r="L47" s="3">
         <v>173200</v>
       </c>
       <c r="M47" s="3">
+        <v>173200</v>
+      </c>
+      <c r="N47" s="3">
         <v>173600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>172700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,35 +2594,38 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E48" s="3">
         <v>16000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,41 +2641,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>339800</v>
+      </c>
+      <c r="E49" s="3">
         <v>410400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>350900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>355500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>262100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>205600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>72800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,14 +2694,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,25 +2806,28 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -2715,8 +2835,8 @@
       <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>400</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2727,20 +2847,23 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1072500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1120000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1036800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1038700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1050300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>777600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>334200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>268400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>174600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>175000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>174400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -2920,8 +3051,8 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -2929,13 +3060,16 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>6300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2944,20 +3078,20 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>7500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,61 +3101,64 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>490600</v>
+      </c>
+      <c r="E59" s="3">
         <v>461000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>373200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>356000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>371500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>412300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3029,85 +3166,91 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>503600</v>
+      </c>
+      <c r="E60" s="3">
         <v>468900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>381400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>363100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>377100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>417000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E61" s="3">
         <v>416600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>415000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>414600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>418000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>42600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3129,34 +3272,37 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E62" s="3">
         <v>35500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>88000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>94100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>86100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>6000</v>
       </c>
       <c r="L62" s="3">
         <v>6000</v>
@@ -3167,8 +3313,8 @@
       <c r="N62" s="3">
         <v>6000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>6000</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>957400</v>
+      </c>
+      <c r="E66" s="3">
         <v>921000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>821900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>821700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>858100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>548900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>172200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>161100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,49 +3770,52 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-542700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-456300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-429900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-424100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-404000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-398900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-382600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-317500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>600</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,49 +3982,52 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E76" s="3">
         <v>199000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>214900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>217000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>192300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>228800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>162000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>107300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>165400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>168500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>168700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>168200</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,104 +4088,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-65100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-68500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,32 +4222,33 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E83" s="3">
         <v>6400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4062,8 +4261,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,49 +4538,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-47600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4403,22 +4624,22 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4432,8 +4653,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,44 +4771,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-53400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-107600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,32 +5057,35 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>327700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>72600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4849,14 +5095,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>174200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,34 +5163,37 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-91000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>263400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-81000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200800</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
@@ -4950,18 +5202,21 @@
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F8" s="3">
         <v>75400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>70800</v>
       </c>
-      <c r="F8" s="3">
-        <v>62600</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>63600</v>
+      </c>
+      <c r="I8" s="3">
         <v>51600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>62800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>51300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>26700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>72300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -791,44 +798,50 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F9" s="3">
         <v>33300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>28600</v>
       </c>
-      <c r="F9" s="3">
-        <v>21200</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>46400</v>
+      </c>
+      <c r="I9" s="3">
         <v>14100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>19200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>19500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,41 +860,47 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42700</v>
+      </c>
+      <c r="F10" s="3">
         <v>42100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>42200</v>
       </c>
-      <c r="F10" s="3">
-        <v>41400</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>17200</v>
+      </c>
+      <c r="I10" s="3">
         <v>37500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>43600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>31800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>54700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +919,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +946,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +1001,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,41 +1060,47 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F14" s="3">
         <v>57100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-8200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,14 +1113,20 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1178,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1202,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>103300</v>
+      </c>
+      <c r="F17" s="3">
         <v>160300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>101600</v>
       </c>
-      <c r="F17" s="3">
-        <v>87900</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>92200</v>
+      </c>
+      <c r="I17" s="3">
         <v>70000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>78500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>66000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>56400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>110100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-84900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-30800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-18400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-15700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-14700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-29700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-37800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,91 +1343,99 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>21600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>10600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-8100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-34600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-75700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-17600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-13400</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-18900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-61800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,41 +1457,47 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>14700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,111 +1510,123 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-86400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-25900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-20500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-24000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-65500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-53100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1634,14 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1693,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-86400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-26400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-20100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-65100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-51300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-86400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-20100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-16300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-65100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-68500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1870,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1929,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1988,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +2047,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-21600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-10600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>8100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>34600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-86400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-20100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-16300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-65100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-68500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2224,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-86400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-20100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-16300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-65100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-68500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2374,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,88 +2397,96 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>215100</v>
+      </c>
+      <c r="F41" s="3">
         <v>260200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>271000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>292400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>315700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>410200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>150200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>222900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>196000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F42" s="3">
         <v>7200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>8500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>9300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>10100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>10100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,11 +2499,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2332,41 +2511,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F43" s="3">
         <v>37000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>38500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>30000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>33600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>23000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2379,14 +2564,20 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,200 +2629,224 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>338400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>332600</v>
+      </c>
+      <c r="F45" s="3">
         <v>341400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>307200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>271000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>251300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>259400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>317000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>575800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>610600</v>
+      </c>
+      <c r="F46" s="3">
         <v>645900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>624800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>601800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>605100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>713400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>250900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>215800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F47" s="3">
         <v>67300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>66700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>65900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>65800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>65800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>63400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>173200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>173200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>173600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>172700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F48" s="3">
         <v>15900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>16000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2644,47 +2859,53 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>353000</v>
+      </c>
+      <c r="F49" s="3">
         <v>339800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>410400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>350900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>355500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>262100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>205600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>72800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>44300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,14 +2918,20 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2983,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,40 +3042,46 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>400</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2850,20 +3089,26 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3160,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1016700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1049100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1072500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1120000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1036800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1038700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1050300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>777600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>334200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>268400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>174400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>174600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>175000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>174400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3246,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,253 +3269,279 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F58" s="3">
         <v>6300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>492900</v>
+      </c>
+      <c r="F59" s="3">
         <v>490600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>461000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>373200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>356000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>371500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>412300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>21600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>516900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>515600</v>
+      </c>
+      <c r="F60" s="3">
         <v>503600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>468900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>381400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>363100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>377100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>417000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>35500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>31700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>425400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>425300</v>
+      </c>
+      <c r="F61" s="3">
         <v>425000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>416600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>415000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>414600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>418000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>43800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>42600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>43200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3275,40 +3560,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E62" s="3">
         <v>28800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="G62" s="3">
         <v>35500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>25500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>44000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>63000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>88000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>94100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>86100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>6000</v>
       </c>
       <c r="N62" s="3">
         <v>6000</v>
@@ -3316,11 +3607,11 @@
       <c r="O62" s="3">
         <v>6000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>6000</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3328,8 +3619,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3678,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3737,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3796,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>971400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>969700</v>
+      </c>
+      <c r="F66" s="3">
         <v>957400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>921000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>821900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>821700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>858100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>548900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>172200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>161100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3882,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3937,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3996,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +4055,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +4114,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-626900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-585000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-542700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-456300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-429900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-424100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-404000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-398900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-382600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-317500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>600</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4232,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4291,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4350,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>79400</v>
+      </c>
+      <c r="F76" s="3">
         <v>115100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>199000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>214900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>217000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>192300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>228800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>162000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>107300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>165400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>168500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>168700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>168200</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4468,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-86400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-20100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-16300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-65100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-68500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,38 +4618,40 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8700</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="3">
         <v>6400</v>
       </c>
       <c r="F83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4264,11 +4661,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4276,8 +4673,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4732,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4791,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4850,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4909,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4968,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-22900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-47600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,37 +5054,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-2700</v>
       </c>
       <c r="F91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -4656,11 +5097,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4668,8 +5109,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +5168,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,50 +5227,56 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-30300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-78800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-53400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-107600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-23700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5286,14 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5313,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5368,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5427,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5486,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5545,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F100" s="3">
         <v>13500</v>
       </c>
-      <c r="E100" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-400</v>
-      </c>
       <c r="G100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-19200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>327700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>34500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>72600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>174200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5663,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-91000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>263400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-81000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>25900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200800</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E8" s="3">
         <v>87400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>67300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75400</v>
       </c>
-      <c r="G8" s="3">
-        <v>70800</v>
-      </c>
       <c r="H8" s="3">
+        <v>70900</v>
+      </c>
+      <c r="I8" s="3">
         <v>63600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>51600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>62800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>72300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,56 +799,59 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E9" s="3">
         <v>51300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>24600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33300</v>
       </c>
-      <c r="G9" s="3">
-        <v>28600</v>
-      </c>
       <c r="H9" s="3">
+        <v>57800</v>
+      </c>
+      <c r="I9" s="3">
         <v>46400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,44 +873,47 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E10" s="3">
         <v>36100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42100</v>
       </c>
-      <c r="G10" s="3">
-        <v>42200</v>
-      </c>
       <c r="H10" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I10" s="3">
         <v>17200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>43600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,23 +1083,26 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>57100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1090,20 +1110,20 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-8200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-2300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,14 +1139,17 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,46 +1230,47 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E17" s="3">
         <v>125900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>103300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>160300</v>
       </c>
-      <c r="G17" s="3">
-        <v>101600</v>
-      </c>
       <c r="H17" s="3">
+        <v>102600</v>
+      </c>
+      <c r="I17" s="3">
         <v>92200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1252,10 +1279,10 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1263,44 +1290,47 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-38500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-84900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-30800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-28600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-29700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1310,11 +1340,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,44 +1378,45 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>6700</v>
-      </c>
       <c r="H20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I20" s="3">
         <v>21600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1392,11 +1426,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1404,41 +1438,44 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-75700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-17600</v>
-      </c>
       <c r="H21" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-61800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,44 +1500,47 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1200</v>
       </c>
       <c r="L22" s="3">
         <v>1200</v>
       </c>
       <c r="M22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N22" s="3">
         <v>14700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1516,64 +1556,67 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-86400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-9500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-65500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-53100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1581,55 +1624,58 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,58 +1748,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-86400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-26400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-65100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-51300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1758,58 +1810,61 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-86400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-26400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-65100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-68500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,44 +2120,47 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-6700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-21600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,11 +2170,11 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2112,58 +2182,61 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-86400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-26400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-65100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-68500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,58 +2306,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-86400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-26400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-65100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-68500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2289,72 +2368,78 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,58 +2485,59 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E41" s="3">
         <v>179400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>215100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>260200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>271000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>292400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>315700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>410200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>150200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>222900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>196000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
@@ -2458,37 +2545,40 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E42" s="3">
         <v>34400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>10100</v>
       </c>
       <c r="K42" s="3">
         <v>10100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>10100</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2505,8 +2595,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2517,44 +2607,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E43" s="3">
         <v>23600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,14 +2663,17 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,55 +2731,58 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E45" s="3">
         <v>338400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>332600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>341400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>307200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>271000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>251300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>259400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>317000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>200</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2694,58 +2793,61 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>657800</v>
+      </c>
+      <c r="E46" s="3">
         <v>575800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>610600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>645900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>624800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>601800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>605100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>713400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>250900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>215800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1400</v>
       </c>
       <c r="P46" s="3">
         <v>1400</v>
       </c>
       <c r="Q46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
@@ -2753,56 +2855,59 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E47" s="3">
         <v>71800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>67400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>67300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>66700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>65900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>65800</v>
       </c>
       <c r="J47" s="3">
         <v>65800</v>
       </c>
       <c r="K47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="L47" s="3">
         <v>63400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>173200</v>
       </c>
       <c r="O47" s="3">
         <v>173200</v>
       </c>
       <c r="P47" s="3">
+        <v>173200</v>
+      </c>
+      <c r="Q47" s="3">
         <v>173600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>172700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,44 +2917,47 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E48" s="3">
         <v>17900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,50 +2973,53 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E49" s="3">
         <v>348900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>353000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>339800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>410400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>350900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>355500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>262100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>205600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>72800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>44300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2924,14 +3035,17 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,34 +3165,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3083,8 +3203,8 @@
       <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>400</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -3095,20 +3215,23 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1047100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1016700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1049100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1072500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1120000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1036800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1038700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1050300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>777600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>334200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>268400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>174400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>174600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>175000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>174400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,47 +3401,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3321,8 +3452,8 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3330,22 +3461,25 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
         <v>10400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -3354,20 +3488,20 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>7500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,70 +3511,73 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E59" s="3">
         <v>500300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>492900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>490600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>461000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>373200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>356000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>371500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>412300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3448,103 +3585,109 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>603700</v>
+      </c>
+      <c r="E60" s="3">
         <v>516900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>515600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>503600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>468900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>381400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>363100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>377100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>417000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E61" s="3">
         <v>425400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>425300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>425000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>416600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>415000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>414600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>418000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3566,43 +3709,46 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E62" s="3">
         <v>29200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>28800</v>
       </c>
       <c r="F62" s="3">
         <v>28800</v>
       </c>
       <c r="G62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="H62" s="3">
         <v>35500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>88000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>94100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>6000</v>
       </c>
       <c r="O62" s="3">
         <v>6000</v>
@@ -3613,8 +3759,8 @@
       <c r="Q62" s="3">
         <v>6000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>6000</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1083900</v>
+      </c>
+      <c r="E66" s="3">
         <v>971400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>969700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>957400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>921000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>821900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>821700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>858100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>548900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>172200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,58 +4291,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-713800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-626900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-585000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-542700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-456300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-429900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-424100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-404000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-398900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-382600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-317500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>600</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
+      <c r="S72" s="3">
+        <v>0</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,58 +4539,61 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E76" s="3">
         <v>45300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>199000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>214900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>217000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>192300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>162000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>107300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>165400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>168500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>168700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>168200</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
+      <c r="S76" s="3">
+        <v>0</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,122 +4663,128 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-86400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-26400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-65100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-68500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>0</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,41 +4818,42 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4866,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,58 +5188,61 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-47600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,40 +5276,41 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -5103,8 +5324,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,53 +5460,56 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-53400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-107600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,41 +5794,44 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10200</v>
       </c>
-      <c r="F100" s="3">
-        <v>13500</v>
-      </c>
       <c r="G100" s="3">
-        <v>-3700</v>
+        <v>11600</v>
       </c>
       <c r="H100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>327700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>34500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>72600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5595,14 +5841,14 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3">
         <v>174200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,43 +5918,46 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-91000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>263400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-81000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200800</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
@@ -5714,18 +5966,21 @@
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>PRCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E8" s="3">
         <v>98800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>87400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>67300</v>
       </c>
-      <c r="G8" s="3">
-        <v>75400</v>
-      </c>
       <c r="H8" s="3">
+        <v>77400</v>
+      </c>
+      <c r="I8" s="3">
         <v>70900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>63600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>51600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>62800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>72300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -802,59 +806,62 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E9" s="3">
         <v>81300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>51300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24600</v>
       </c>
-      <c r="G9" s="3">
-        <v>33300</v>
-      </c>
       <c r="H9" s="3">
+        <v>66200</v>
+      </c>
+      <c r="I9" s="3">
         <v>57800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>46400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,47 +883,50 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E10" s="3">
         <v>17500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42700</v>
       </c>
-      <c r="G10" s="3">
-        <v>42100</v>
-      </c>
       <c r="H10" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I10" s="3">
         <v>13100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,25 +1103,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-26100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4300</v>
       </c>
-      <c r="G14" s="3">
-        <v>57100</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>114100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1113,20 +1133,20 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-8200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-2300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,14 +1162,17 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,49 +1257,50 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E17" s="3">
         <v>176800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>125900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>103300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>160300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1282,10 +1309,10 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
@@ -1293,47 +1320,50 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-78000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-84900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-31700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-29700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,11 +1373,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1385,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,47 +1412,48 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>21600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,11 +1463,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1441,44 +1475,47 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-71900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-75700</v>
-      </c>
       <c r="H21" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-18500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-61800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,47 +1540,50 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E22" s="3">
         <v>8800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
-        <v>2100</v>
-      </c>
       <c r="H22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1200</v>
       </c>
       <c r="M22" s="3">
         <v>1200</v>
       </c>
       <c r="N22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O22" s="3">
         <v>14700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,67 +1599,70 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-86900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-86400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-26900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-65500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-53100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
+      <c r="T23" s="3">
+        <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
@@ -1627,58 +1670,61 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,61 +1800,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-87000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-86400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-27300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-65100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-51300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
+      <c r="T26" s="3">
+        <v>0</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
@@ -1813,61 +1865,64 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-87000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-86400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-27300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-65100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-68500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
@@ -1875,8 +1930,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,47 +2190,50 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-21600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2173,11 +2243,11 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2185,61 +2255,64 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-87000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-86400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-27300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-65100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-68500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>0</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2320,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,61 +2385,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-87000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-86400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-27300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-65100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-68500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>0</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
@@ -2371,75 +2450,81 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,61 +2572,62 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E41" s="3">
         <v>265600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>179400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>215100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>260200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>271000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>292400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>315700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>410200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>150200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>222900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>196000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
@@ -2548,40 +2635,43 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E42" s="3">
         <v>26200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>36500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>10100</v>
       </c>
       <c r="L42" s="3">
         <v>10100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>10100</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
@@ -2598,8 +2688,8 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2610,47 +2700,50 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E43" s="3">
         <v>24700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2666,14 +2759,17 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,58 +2830,61 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E45" s="3">
         <v>341400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>338400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>332600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>341400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>307200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>271000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>251300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>259400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>317000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>200</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2796,61 +2895,64 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>561800</v>
+      </c>
+      <c r="E46" s="3">
         <v>657800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>575800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>610600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>645900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>624800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>601800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>605100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>713400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>250900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>215800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1400</v>
       </c>
       <c r="Q46" s="3">
         <v>1400</v>
       </c>
       <c r="R46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
@@ -2858,59 +2960,62 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E47" s="3">
         <v>80100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>67400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>67300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>66700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>65900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>65800</v>
       </c>
       <c r="K47" s="3">
         <v>65800</v>
       </c>
       <c r="L47" s="3">
+        <v>65800</v>
+      </c>
+      <c r="M47" s="3">
         <v>63400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>173200</v>
       </c>
       <c r="P47" s="3">
         <v>173200</v>
       </c>
       <c r="Q47" s="3">
+        <v>173200</v>
+      </c>
+      <c r="R47" s="3">
         <v>173600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>172700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,47 +3025,50 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E48" s="3">
         <v>18500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,53 +3084,56 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E49" s="3">
         <v>288700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>348900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>353000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>339800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>410400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>350900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>355500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>262100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>205600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>72800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3038,14 +3149,17 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,37 +3285,40 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -3206,8 +3326,8 @@
       <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>400</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -3218,20 +3338,23 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>967400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1047100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1016700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1049100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1072500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1120000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1036800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1038700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1050300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>777600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>334200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>268400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>174400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>174600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>175000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>174400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,50 +3532,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>9300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3455,8 +3586,8 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
@@ -3464,25 +3595,28 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -3491,20 +3625,20 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>7500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3514,73 +3648,76 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>511100</v>
+      </c>
+      <c r="E59" s="3">
         <v>589000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>492900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>490600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>461000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>373200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>356000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>371500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>412300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
@@ -3588,109 +3725,115 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>521800</v>
+      </c>
+      <c r="E60" s="3">
         <v>603700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>516900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>515600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>503600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>468900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>381400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>363100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>377100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>417000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>431200</v>
+      </c>
+      <c r="E61" s="3">
         <v>427000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>425400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>425300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>425000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>416600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>415000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>414600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>418000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>42600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3712,46 +3855,49 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E62" s="3">
         <v>53200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>28800</v>
       </c>
       <c r="G62" s="3">
         <v>28800</v>
       </c>
       <c r="H62" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I62" s="3">
         <v>35500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>94100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>86100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>6000</v>
       </c>
       <c r="P62" s="3">
         <v>6000</v>
@@ -3762,8 +3908,8 @@
       <c r="R62" s="3">
         <v>6000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>6000</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1004600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1083900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>971400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>969700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>957400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>921000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>821900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>821700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>858100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>548900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>172200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>161100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,61 +4465,64 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-719600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-713800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-626900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-585000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-542700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-456300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-429900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-424100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-404000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-398900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-382600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-317500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>600</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
+      <c r="T72" s="3">
+        <v>0</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,61 +4725,64 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-36700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>79400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>199000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>214900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>217000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>192300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>228800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>162000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>165400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>168500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>168700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>168200</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
+      <c r="T76" s="3">
+        <v>0</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,128 +4855,134 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-87000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-86400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-27300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-65100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-68500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>0</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
@@ -4795,8 +4990,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,44 +5017,45 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4869,8 +5068,8 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,61 +5405,64 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E89" s="3">
         <v>13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-4900</v>
-      </c>
       <c r="G89" s="3">
-        <v>-10500</v>
+        <v>-7400</v>
       </c>
       <c r="H89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I89" s="3">
         <v>11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-47600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,43 +5497,44 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -5327,8 +5548,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,56 +5690,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-53400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-107600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,44 +6040,47 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>327700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>34500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>72600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5844,14 +6090,14 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
         <v>174200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -5859,8 +6105,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,46 +6170,49 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E102" s="3">
         <v>110700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-91000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>263400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-81000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200800</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
@@ -5969,18 +6221,21 @@
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
